--- a/Documents/Табличка с расчетами по практике.xlsx
+++ b/Documents/Табличка с расчетами по практике.xlsx
@@ -335,15 +335,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
       <c r="B2">
         <v>4</v>
       </c>
@@ -357,8 +371,24 @@
         <f>C2/D2</f>
         <v>9.0996503982347599E-2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4.4380000000000003E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.28230899999999998</v>
+      </c>
+      <c r="J2">
+        <f>H2/I2</f>
+        <v>0.15720363148181604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
       <c r="B3">
         <f>B2*2</f>
         <v>8</v>
@@ -374,14 +404,31 @@
         <f t="shared" ref="E3:E19" si="0">C3/D3</f>
         <v>0.19884778727383878</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>G2*2</f>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>8.5661000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.23879700000000001</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J19" si="1">H3/I3</f>
+        <v>0.35871891187912747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4">
-        <f t="shared" ref="B4:B20" si="1">B3*2</f>
+        <f t="shared" ref="B4:B19" si="2">B3*2</f>
         <v>16</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C20" si="2">C3*2</f>
+        <f t="shared" ref="C4:C19" si="3">C3*2</f>
         <v>0.196464</v>
       </c>
       <c r="D4">
@@ -391,14 +438,31 @@
         <f t="shared" si="0"/>
         <v>0.39834953720130983</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="4">G3*2</f>
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>0.171815</v>
+      </c>
+      <c r="I4">
+        <v>0.23876600000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.71959575483946625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.392928</v>
       </c>
       <c r="D5">
@@ -408,14 +472,31 @@
         <f t="shared" si="0"/>
         <v>0.7997020411403033</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>0.34174500000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.23990700000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.42448948967725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.785856</v>
       </c>
       <c r="D6">
@@ -425,14 +506,31 @@
         <f t="shared" si="0"/>
         <v>1.5973819275761487</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>0.709673</v>
+      </c>
+      <c r="I6">
+        <v>0.239703</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2.9606346186739425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.571712</v>
       </c>
       <c r="D7">
@@ -442,14 +540,31 @@
         <f t="shared" si="0"/>
         <v>3.1984696628984826</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>1.3841829999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.23877799999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5.7969452797158869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.143424</v>
       </c>
       <c r="D8">
@@ -459,14 +574,31 @@
         <f t="shared" si="0"/>
         <v>6.3972517710650401</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="H8">
+        <v>2.7879100000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.24026800000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>11.603334609685851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.286848</v>
       </c>
       <c r="D9">
@@ -476,14 +608,31 @@
         <f t="shared" si="0"/>
         <v>12.794217126390466</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="H9">
+        <v>5.4856879999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.238091</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>23.040299717334968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.573696</v>
       </c>
       <c r="D10">
@@ -493,14 +642,32 @@
         <f t="shared" si="0"/>
         <v>25.598071649460401</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="H10">
+        <f>H9*2</f>
+        <v>10.971375999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.239264</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>45.854687708974183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.147392</v>
       </c>
       <c r="D11">
@@ -510,14 +677,32 @@
         <f t="shared" si="0"/>
         <v>51.189473619929117</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H19" si="5">H10*2</f>
+        <v>21.942751999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.23991399999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>91.46090682494561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.294784</v>
       </c>
       <c r="D12">
@@ -527,14 +712,32 @@
         <f t="shared" si="0"/>
         <v>102.32978838121088</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>4096</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>43.885503999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.23975399999999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>183.04388665048342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100.589568</v>
       </c>
       <c r="D13">
@@ -544,14 +747,32 @@
         <f t="shared" si="0"/>
         <v>204.71705616463726</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>8192</v>
+      </c>
+      <c r="H13">
+        <f>H12*2</f>
+        <v>87.771007999999995</v>
+      </c>
+      <c r="I13">
+        <v>0.23865500000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>367.77359787140432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201.179136</v>
       </c>
       <c r="D14">
@@ -561,14 +782,32 @@
         <f t="shared" si="0"/>
         <v>406.36831452775994</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>175.54201599999999</v>
+      </c>
+      <c r="I14">
+        <v>0.242175</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>724.8560586352844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32768</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>402.358272</v>
       </c>
       <c r="D15">
@@ -578,14 +817,32 @@
         <f t="shared" si="0"/>
         <v>421.803409162386</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>32768</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>351.08403199999998</v>
+      </c>
+      <c r="I15">
+        <v>0.47639399999999998</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>736.96148985923412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65536</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>804.716544</v>
       </c>
       <c r="D16">
@@ -595,14 +852,32 @@
         <f t="shared" si="0"/>
         <v>422.16830880659506</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>702.16806399999996</v>
+      </c>
+      <c r="I16">
+        <v>0.94306599999999996</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>744.55877319296849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131072</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1609.433088</v>
       </c>
       <c r="D17">
@@ -612,14 +887,32 @@
         <f t="shared" si="0"/>
         <v>421.48240385113968</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>1404.3361279999999</v>
+      </c>
+      <c r="I17">
+        <v>1.8867830000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>744.3018767924026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>262144</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3218.866176</v>
       </c>
       <c r="D18">
@@ -629,14 +922,32 @@
         <f t="shared" si="0"/>
         <v>451.30462828702656</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>2808.6722559999998</v>
+      </c>
+      <c r="I18">
+        <v>3.5365660000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>794.18064189951485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>524288</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6437.732352</v>
       </c>
       <c r="D19">
@@ -645,6 +956,21 @@
       <c r="E19">
         <f t="shared" si="0"/>
         <v>463.95797193362779</v>
+      </c>
+      <c r="G19">
+        <f>G18*2</f>
+        <v>524288</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>5617.3445119999997</v>
+      </c>
+      <c r="I19">
+        <v>6.8809440000000004</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>816.36248049686196</v>
       </c>
     </row>
   </sheetData>
